--- a/data/account_invite.xlsx
+++ b/data/account_invite.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProject_baili\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4245BA67-7670-4EA5-A9A6-014C8C47919E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFE5B8B-654A-4D3C-A425-BC79113B5238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>手機號</t>
   </si>
@@ -182,15 +182,11 @@
     <t>請將滑鼠移至各欄位標題，即可看到各欄位注意事項。   請勿任意調整標題欄位順序。對於已存在租戶下的用戶處理方式，請看各欄位的註記</t>
   </si>
   <si>
-    <t>一般用户</t>
+    <t>0</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1234444444</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>143214214@qq.com</t>
+    <t>1234444448</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -225,6 +221,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -597,7 +594,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -649,9 +646,7 @@
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B2" s="5"/>
       <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
@@ -662,10 +657,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{932BEDA1-D8B5-4446-A880-B1BCDE2067C8}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/account_invite.xlsx
+++ b/data/account_invite.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProject_baili\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFE5B8B-654A-4D3C-A425-BC79113B5238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4245BA67-7670-4EA5-A9A6-014C8C47919E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>手機號</t>
   </si>
@@ -182,11 +182,15 @@
     <t>請將滑鼠移至各欄位標題，即可看到各欄位注意事項。   請勿任意調整標題欄位順序。對於已存在租戶下的用戶處理方式，請看各欄位的註記</t>
   </si>
   <si>
-    <t>0</t>
+    <t>一般用户</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1234444448</t>
+    <t>1234444444</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>143214214@qq.com</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +225,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -594,7 +597,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -646,7 +649,9 @@
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
@@ -657,7 +662,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{932BEDA1-D8B5-4446-A880-B1BCDE2067C8}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/account_invite.xlsx
+++ b/data/account_invite.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProject_baili\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4245BA67-7670-4EA5-A9A6-014C8C47919E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A98867-6E5C-47B9-9F93-DC9C551C4670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>手機號</t>
   </si>
@@ -180,17 +180,13 @@
   </si>
   <si>
     <t>請將滑鼠移至各欄位標題，即可看到各欄位注意事項。   請勿任意調整標題欄位順序。對於已存在租戶下的用戶處理方式，請看各欄位的註記</t>
-  </si>
-  <si>
-    <t>一般用户</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1234444444</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>143214214@qq.com</t>
+    <t>0</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -225,6 +221,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -597,7 +594,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -647,13 +644,11 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="F2" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -662,10 +657,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{932BEDA1-D8B5-4446-A880-B1BCDE2067C8}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>